--- a/medicine/Mort/Liste_des_victimes_des_attentats_de_janvier_2015/Liste_des_victimes_des_attentats_de_janvier_2015.xlsx
+++ b/medicine/Mort/Liste_des_victimes_des_attentats_de_janvier_2015/Liste_des_victimes_des_attentats_de_janvier_2015.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la liste des victimes des attentats de janvier 2015. Il recense les personnes blessées physiquement et celles ayant perdu la vie lors de cette série d'attentats, commis en France par les frères Chérif et Saïd Kouachi d'une part et par Amedy Coulibaly d'autre part.
-La vingtaine d'enfants des victimes décédées ou blessées peuvent prétendre au statut de pupille de la Nation si elles le souhaitent[1].
+La vingtaine d'enfants des victimes décédées ou blessées peuvent prétendre au statut de pupille de la Nation si elles le souhaitent.
 </t>
         </is>
       </c>
@@ -512,36 +524,349 @@
           <t>Attentat contre Charlie Hebdo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'attentat contre Charlie Hebdo est intervenu le 7 janvier 2015 et a été commis par les frères Chérif et Saïd Kouachi.
-Morts
-Frédéric Boisseau
-Frédéric Boisseau est né à Recloses (Seine-et-Marne). Il est employé comme responsable des opérations au sein de la société Sodexo[2] qui assurait une prestation de maintenance dans l’immeuble. C'était la première fois qu’il se rendait avec son équipe dans cet immeuble.
-Il est la première personne tuée par les frères Kouachi[3].
-Il vivait à Villiers-sous-Grez, village voisin de Recloses, avec son épouse et ses deux enfants. C'est dans ce village qu'il est inhumé le 20 janvier. Il est fait, à titre posthume, chevalier de la Légion d'honneur[2]. Il avait 42 ans.
-Franck Brinsolaro
-Franck Brinsolaro, né le 11 janvier 1966 à Toulon[4], était membre du Service de la protection (SDLP) de la Police nationale. Il était chargé de la protection de Charb[3].
-Il était marié à Ingrid Brinsolaro, rédactrice en chef de L'Éveil normand, avec qui il avait deux enfants, dont un avait alors 13 mois[3].
-Franck Brinsolaro est fait, le 13 janvier, à titre posthume, chevalier de la Légion d'honneur avec citation à l'ordre de la Nation[5]. Il est inhumé à Bernay dans l'Eure le 15 janvier[6]. Il avait 48 ans.
-Cabu
-Cabu était dessinateur au journal Charlie Hebdo. Il avait 76 ans.
-Elsa Cayat
-Médecin psychiatre, Elsa Cayat était chroniqueuse au journal Charlie Hebdo. Elle avait 54 ans.
-Charb
-Dessinateur satirique et journaliste au journal Charlie Hebdo, il en était également le directeur de publication. Selon des témoignages, il était la « cible » principale de l'attentat. Il avait 47 ans.
-Honoré
-Honoré était dessinateur au journal Charlie Hebdo. Il avait 73 ans.
-Bernard Maris
-Bernard Maris était économiste et chroniqueur au journal Charlie Hebdo sous le nom d'Oncle Bernard. Il était également administrateur du journal. Il avait 68 ans.
-Ahmed Merabet
-Ahmed Merabet est né à Livry-Gargan (Seine-Saint-Denis)[5]. Il est brigadier[réf. nécessaire] à VTT du commissariat du 11e arrondissement[3].
-Il est touché alors qu'il affronte les auteurs de l'attentat boulevard Richard-Lenoir[7], avant d'être achevé alors qu'il gît au sol, blessé et désarmé. 
-Le 13 janvier 2015, Ahmed Merabet est fait, à titre posthume, chevalier de la Légion d'honneur avec citation à l'ordre de la Nation[5]. Il est inhumé au cimetière musulman de Bobigny. Il avait quarante ans.
-Le 18 mars 2015, la vingtième promotion de l'École nationale supérieure des officiers de police à Cannes-Écluse prend les noms d'Ahmed Merabet et Franck Brinsolaro comme nom de baptême [8].
-Le 4 janvier 2016, l'artiste urbain Christian Guémy, connu sous le nom de C215, réalise au pochoir sur une boîte à feu un double portrait du policier orné du slogan « Je suis Ahmed »[9]. L'œuvre est réalisée à la demande du commandant Stéphane Motel, du commissariat du 11e arrondissement de Paris où travaillait Merabet. Le portrait est dévoilé devant une centaine de personnes parmi lesquelles les collègues du policier et sa famille.
-C215 réalise le pochoir sur place, devant la famille. Il peint Ahmed Merabet derrière les couleurs républicaines, pour le symbole qu'il représente. L'artiste peint deux portraits sur base de photos confiées par la famille : un portrait de face, solennel, regardant vers l'endroit où il a été abattu, et un portrait de profil, plus souriant, regardant vers la rue[10].
-Le 5 janvier 2016, une plaque à sa mémoire est dévoilée par le président François Hollande, le Premier ministre Manuel Valls et la maire de Paris, Anne Hidalgo[11] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Attentat contre Charlie Hebdo</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morts</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Frédéric Boisseau</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Boisseau est né à Recloses (Seine-et-Marne). Il est employé comme responsable des opérations au sein de la société Sodexo qui assurait une prestation de maintenance dans l’immeuble. C'était la première fois qu’il se rendait avec son équipe dans cet immeuble.
+Il est la première personne tuée par les frères Kouachi.
+Il vivait à Villiers-sous-Grez, village voisin de Recloses, avec son épouse et ses deux enfants. C'est dans ce village qu'il est inhumé le 20 janvier. Il est fait, à titre posthume, chevalier de la Légion d'honneur. Il avait 42 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Attentat contre Charlie Hebdo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morts</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Franck Brinsolaro</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franck Brinsolaro, né le 11 janvier 1966 à Toulon, était membre du Service de la protection (SDLP) de la Police nationale. Il était chargé de la protection de Charb.
+Il était marié à Ingrid Brinsolaro, rédactrice en chef de L'Éveil normand, avec qui il avait deux enfants, dont un avait alors 13 mois.
+Franck Brinsolaro est fait, le 13 janvier, à titre posthume, chevalier de la Légion d'honneur avec citation à l'ordre de la Nation. Il est inhumé à Bernay dans l'Eure le 15 janvier. Il avait 48 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Attentat contre Charlie Hebdo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Morts</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cabu</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cabu était dessinateur au journal Charlie Hebdo. Il avait 76 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Attentat contre Charlie Hebdo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Morts</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Elsa Cayat</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin psychiatre, Elsa Cayat était chroniqueuse au journal Charlie Hebdo. Elle avait 54 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Attentat contre Charlie Hebdo</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Morts</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Charb</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dessinateur satirique et journaliste au journal Charlie Hebdo, il en était également le directeur de publication. Selon des témoignages, il était la « cible » principale de l'attentat. Il avait 47 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Attentat contre Charlie Hebdo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Morts</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Honoré</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Honoré était dessinateur au journal Charlie Hebdo. Il avait 73 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Attentat contre Charlie Hebdo</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Morts</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Bernard Maris</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Maris était économiste et chroniqueur au journal Charlie Hebdo sous le nom d'Oncle Bernard. Il était également administrateur du journal. Il avait 68 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Attentat contre Charlie Hebdo</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Morts</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ahmed Merabet</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahmed Merabet est né à Livry-Gargan (Seine-Saint-Denis). Il est brigadier[réf. nécessaire] à VTT du commissariat du 11e arrondissement.
+Il est touché alors qu'il affronte les auteurs de l'attentat boulevard Richard-Lenoir, avant d'être achevé alors qu'il gît au sol, blessé et désarmé. 
+Le 13 janvier 2015, Ahmed Merabet est fait, à titre posthume, chevalier de la Légion d'honneur avec citation à l'ordre de la Nation. Il est inhumé au cimetière musulman de Bobigny. Il avait quarante ans.
+Le 18 mars 2015, la vingtième promotion de l'École nationale supérieure des officiers de police à Cannes-Écluse prend les noms d'Ahmed Merabet et Franck Brinsolaro comme nom de baptême .
+Le 4 janvier 2016, l'artiste urbain Christian Guémy, connu sous le nom de C215, réalise au pochoir sur une boîte à feu un double portrait du policier orné du slogan « Je suis Ahmed ». L'œuvre est réalisée à la demande du commandant Stéphane Motel, du commissariat du 11e arrondissement de Paris où travaillait Merabet. Le portrait est dévoilé devant une centaine de personnes parmi lesquelles les collègues du policier et sa famille.
+C215 réalise le pochoir sur place, devant la famille. Il peint Ahmed Merabet derrière les couleurs républicaines, pour le symbole qu'il représente. L'artiste peint deux portraits sur base de photos confiées par la famille : un portrait de face, solennel, regardant vers l'endroit où il a été abattu, et un portrait de profil, plus souriant, regardant vers la rue.
+Le 5 janvier 2016, une plaque à sa mémoire est dévoilée par le président François Hollande, le Premier ministre Manuel Valls et la maire de Paris, Anne Hidalgo :
 « À la mémoire
 Du lieutenant de police
 Ahmed Merabet
@@ -549,105 +874,475 @@
 Le 7 janvier 2015
 Victime du terrorisme dans 
 L'accomplissement de son devoir »
-Mustapha Ourrad
-Journaliste franco-algérien, Mustapha Ourrad était correcteur au journal Charlie Hebdo. Il avait 60 ans.
-Michel Renaud
-Michel Renaud était invité à la conférence de rédaction du journal Charlie Hebdo, car il était venu voir Cabu pour lui rendre des dessins qu'il avait exposés. Il avait 69 ans.
-Tignous
-Tignous était dessinateur au journal Charlie Hebdo. Il avait 57 ans.
-Wolinski
-Wolinski était dessinateur au journal Charlie Hebdo. Il avait 80 ans.
-Blessés
-Parmi les blessés[12], on compte les journalistes Philippe Lançon[13] (gravement touché au visage[14]) et Fabrice Nicolino[15] (touché aux jambes[14]; déjà victime d'un attentat à la bombe dans le cinéma Rivoli Beaubourg (en) en 1985) ainsi que le webmestre du journal, Simon Fieschi[14],[16] (le plus gravement touché[14]), le dessinateur et directeur de la rédaction Riss (touché à l'épaule[14],[15]), un second employé du nettoyage qui se trouvait dans le hall d'entrée[réf. nécessaire].
-Deux jours après l'attentat, les blessés légers sortaient de l'hôpital et les blessés graves n'étaient plus en danger de mort[17].
-Plus de quatre mois après les événements, le 8 mai 2015, Simon Fieschi[18], Philippe Lançon et Fabrice Nicolino étaient encore hospitalisés.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Attentat contre Charlie Hebdo</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Morts</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Mustapha Ourrad</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Journaliste franco-algérien, Mustapha Ourrad était correcteur au journal Charlie Hebdo. Il avait 60 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Attentat contre Charlie Hebdo</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Morts</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Michel Renaud</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Renaud était invité à la conférence de rédaction du journal Charlie Hebdo, car il était venu voir Cabu pour lui rendre des dessins qu'il avait exposés. Il avait 69 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Attentat contre Charlie Hebdo</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Morts</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tignous</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tignous était dessinateur au journal Charlie Hebdo. Il avait 57 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Attentat contre Charlie Hebdo</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Morts</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Wolinski</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wolinski était dessinateur au journal Charlie Hebdo. Il avait 80 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Attentat contre Charlie Hebdo</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Blessés</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les blessés, on compte les journalistes Philippe Lançon (gravement touché au visage) et Fabrice Nicolino (touché aux jambes; déjà victime d'un attentat à la bombe dans le cinéma Rivoli Beaubourg (en) en 1985) ainsi que le webmestre du journal, Simon Fieschi, (le plus gravement touché), le dessinateur et directeur de la rédaction Riss (touché à l'épaule,), un second employé du nettoyage qui se trouvait dans le hall d'entrée[réf. nécessaire].
+Deux jours après l'attentat, les blessés légers sortaient de l'hôpital et les blessés graves n'étaient plus en danger de mort.
+Plus de quatre mois après les événements, le 8 mai 2015, Simon Fieschi, Philippe Lançon et Fabrice Nicolino étaient encore hospitalisés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Fusillade à Montrouge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Amedy Coulibaly a d'abord tué le 8 janvier une policière municipale stagiaire.
-Clarissa Jean-Philippe
-Au moment des attentats, Clarissa Jean-Philippe (1988-2015), originaire de Sainte-Marie en Martinique, est gardien de police municipale stagiaire à la police municipale de Montrouge après avoir réussi le concours d'entrée et sa formation initiale d'application (FIA). Le matin du 8 janvier 2015 elle patrouille sur le marché de Montrouge lorsqu'elle est appelée pour un accident de circulation. Arrivée à hauteur du no 91 de l'avenue Pierre-Brossolette, à l'angle de l'avenue de la Paix, elle est mortellement blessée par Amedy Coulibaly[19] à 8 h 10[20].
-Une école-synagogue juive étant toute proche du lieu du drame, nombre de ses élèves et fidèles pensent qu'elle était la cible initiale du terroriste, bien que ce dernier ait déclaré le surlendemain à BFMTV vouloir « faire les policiers »[21].
-Clarissa Jean-Philippe est faite le 13 janvier, à titre posthume, chevalière de la Légion d'honneur avec citation à l'ordre de la Nation[5]. Elle a été inhumée le 19 janvier à Sainte-Marie. Elle avait 25 ans.
-Le 9 janvier 2016, une plaque à sa mémoire est dévoilée par le président François Hollande en présence du ministre de l'Intérieur Bernard Cazeneuve et de la ministre de la Justice Christiane Taubira[22] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Fusillade à Montrouge</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Clarissa Jean-Philippe</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au moment des attentats, Clarissa Jean-Philippe (1988-2015), originaire de Sainte-Marie en Martinique, est gardien de police municipale stagiaire à la police municipale de Montrouge après avoir réussi le concours d'entrée et sa formation initiale d'application (FIA). Le matin du 8 janvier 2015 elle patrouille sur le marché de Montrouge lorsqu'elle est appelée pour un accident de circulation. Arrivée à hauteur du no 91 de l'avenue Pierre-Brossolette, à l'angle de l'avenue de la Paix, elle est mortellement blessée par Amedy Coulibaly à 8 h 10.
+Une école-synagogue juive étant toute proche du lieu du drame, nombre de ses élèves et fidèles pensent qu'elle était la cible initiale du terroriste, bien que ce dernier ait déclaré le surlendemain à BFMTV vouloir « faire les policiers ».
+Clarissa Jean-Philippe est faite le 13 janvier, à titre posthume, chevalière de la Légion d'honneur avec citation à l'ordre de la Nation. Elle a été inhumée le 19 janvier à Sainte-Marie. Elle avait 25 ans.
+Le 9 janvier 2016, une plaque à sa mémoire est dévoilée par le président François Hollande en présence du ministre de l'Intérieur Bernard Cazeneuve et de la ministre de la Justice Christiane Taubira :
 « À la mémoire de Clarissa Jean-Philippe
 Brigadier de police municipale
 De la ville de Montrouge
 Assassinée en ce lieu le 8 janvier 2015
 Victime du terrorisme
 Dans l'accomplissement de son devoir »
-Par ailleurs, l'avenue de la Paix à Montrouge est renommée "avenue de la Paix - Clarissa Jean-Philippe"[22].
-En janvier 2018, le ministre de l’intérieur Gérard Collomb et la ministre des Outre-mer Annick Girardin assistent à une cérémonie en mémoire de la brigadière et un square est inauguré à son nom à Carrières-sous-Poissy (Yvelines), commune où elle résidait[23].
-Le 11 janvier 2019, Anne Hidalgo, maire de Paris, et Carine Petit, maire du 14e arrondissement de Paris, inaugurent l'allée Clarissa-Jean-Philippe dans le square du Serment-de-Koufra[24].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Par ailleurs, l'avenue de la Paix à Montrouge est renommée "avenue de la Paix - Clarissa Jean-Philippe".
+En janvier 2018, le ministre de l’intérieur Gérard Collomb et la ministre des Outre-mer Annick Girardin assistent à une cérémonie en mémoire de la brigadière et un square est inauguré à son nom à Carrières-sous-Poissy (Yvelines), commune où elle résidait.
+Le 11 janvier 2019, Anne Hidalgo, maire de Paris, et Carine Petit, maire du 14e arrondissement de Paris, inaugurent l'allée Clarissa-Jean-Philippe dans le square du Serment-de-Koufra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Prise d'otages du magasin Hyper Cacher de la porte de Vincennes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Amedy Coulibaly, déjà recherché par la police pour l'assassinat, commis la veille, d'une policière municipale de Montrouge, s'introduit le 9 janvier dans un supermarché cacher de la porte de Vincennes. Il tue immédiatement trois personnes et en prend en otage dix-sept autres, dont l'un est tué peu après, portant à quatre le nombre des morts.
-Philippe Braham
-Philippe Braham est cadre commercial dans une société d'informatique et frère du rabbin de la synagogue de Pantin. Il vivait à L'Haÿ-les-Roses. Juif pratiquant, il fréquentait la synagogue de Montrouge et avait placé ses enfants à l'école juive attenante[25],[26].
-Il est abattu dès l'entrée de Coulibaly dans le magasin[25],[26]. Il est inhumé le 13 janvier 2015 au cimetière Har Hamenouhot (mont des Répits) de Jérusalem en même temps que les trois autres victimes de la prise d'otages du magasin Hyper Cacher[27] et en présence de personnalités israéliennes et de Ségolène Royal, représentant le gouvernement français[28] (voir funérailles à Jérusalem). Il avait 45 ans.
-Yohan Cohen
-Yohan Cohen est né le 22 octobre 1994[29] à Enghien-les-Bains (Val-d'Oise) et vivait à Sarcelles. Il était étudiant, employé du magasin et ami de Lassana Bathily. Il est abattu dès l'entrée de Coulibaly dans le magasin[25],[26] Il est inhumé le 13 janvier 2015 au cimetière Har Hamenouhot (mont des Répits) de Jérusalem en même temps que les trois autres victimes de la prise d'otages du magasin Hyper Cacher (voir ci-dessus). Il avait vingt ans.
-Yoav Hattab
-Yoav Hattab, né le 18 avril 1993 à Tunis, est issu d'une famille de sept enfants. Il obtient son baccalauréat au lycée français de Tunis et s'installe à Paris pour poursuivre des études de commerce international[30]. Son père est le directeur de l'école juive de Tunis « Benyamin Hattab »[30]. Son grand-père, Battou Hattab, est le grand-rabbin de Tunis, également directeur de l’école juive de Tunis United Lubavitch Yeshiva[31]. 
-Invité pour shabbat par la famille Hayoun, il ne voulait pas entrer chez elle les mains vides et s'apprêtait à lui acheter un cadeau à l'Hyper Cacher[31]. Il est abattu par Coulibaly pour s'être emparé d'une des armes de ce dernier, enrayée[25],[26]. Il est inhumé le 13 janvier 2015 au cimetière Har Hamenouhot (mont des Répits) de Jérusalem en même temps que les trois autres victimes de la prise d'otages du magasin Hyper Cacher. Il avait 21 ans. 
-La famille de Hattab avait déjà été endeuillée par un attentat commis en 1985, au cours duquel un soldat tunisien avait ouvert le feu dans l'enceinte de la synagogue de la Ghriba, à Djerba, tuant cinq personnes, dont la sœur de la mère de Hattab, alors âgée de 17 ans[32].
-François-Michel Saada
-François-Michel Saada, né le 6 juin 1951 à Tunis, est cadre supérieur à la retraite[25]. Il est abattu dès l'entrée de Coulibaly dans le magasin[25],[26]. Il est inhumé le 13 janvier 2015 au cimetière Har Hamenouhot (mont des Répits) de Jérusalem en même temps que les trois autres victimes de la prise d'otages du magasin Hyper Cacher (voir ci-dessus). Il avait 63 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Prise d'otages du magasin Hyper Cacher de la porte de Vincennes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Philippe Braham</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Braham est cadre commercial dans une société d'informatique et frère du rabbin de la synagogue de Pantin. Il vivait à L'Haÿ-les-Roses. Juif pratiquant, il fréquentait la synagogue de Montrouge et avait placé ses enfants à l'école juive attenante,.
+Il est abattu dès l'entrée de Coulibaly dans le magasin,. Il est inhumé le 13 janvier 2015 au cimetière Har Hamenouhot (mont des Répits) de Jérusalem en même temps que les trois autres victimes de la prise d'otages du magasin Hyper Cacher et en présence de personnalités israéliennes et de Ségolène Royal, représentant le gouvernement français (voir funérailles à Jérusalem). Il avait 45 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Prise d'otages du magasin Hyper Cacher de la porte de Vincennes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yohan Cohen</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yohan Cohen est né le 22 octobre 1994 à Enghien-les-Bains (Val-d'Oise) et vivait à Sarcelles. Il était étudiant, employé du magasin et ami de Lassana Bathily. Il est abattu dès l'entrée de Coulibaly dans le magasin, Il est inhumé le 13 janvier 2015 au cimetière Har Hamenouhot (mont des Répits) de Jérusalem en même temps que les trois autres victimes de la prise d'otages du magasin Hyper Cacher (voir ci-dessus). Il avait vingt ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Prise d'otages du magasin Hyper Cacher de la porte de Vincennes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yoav Hattab</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yoav Hattab, né le 18 avril 1993 à Tunis, est issu d'une famille de sept enfants. Il obtient son baccalauréat au lycée français de Tunis et s'installe à Paris pour poursuivre des études de commerce international. Son père est le directeur de l'école juive de Tunis « Benyamin Hattab ». Son grand-père, Battou Hattab, est le grand-rabbin de Tunis, également directeur de l’école juive de Tunis United Lubavitch Yeshiva. 
+Invité pour shabbat par la famille Hayoun, il ne voulait pas entrer chez elle les mains vides et s'apprêtait à lui acheter un cadeau à l'Hyper Cacher. Il est abattu par Coulibaly pour s'être emparé d'une des armes de ce dernier, enrayée,. Il est inhumé le 13 janvier 2015 au cimetière Har Hamenouhot (mont des Répits) de Jérusalem en même temps que les trois autres victimes de la prise d'otages du magasin Hyper Cacher. Il avait 21 ans. 
+La famille de Hattab avait déjà été endeuillée par un attentat commis en 1985, au cours duquel un soldat tunisien avait ouvert le feu dans l'enceinte de la synagogue de la Ghriba, à Djerba, tuant cinq personnes, dont la sœur de la mère de Hattab, alors âgée de 17 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_victimes_des_attentats_de_janvier_2015</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Prise d'otages du magasin Hyper Cacher de la porte de Vincennes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>François-Michel Saada</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François-Michel Saada, né le 6 juin 1951 à Tunis, est cadre supérieur à la retraite. Il est abattu dès l'entrée de Coulibaly dans le magasin,. Il est inhumé le 13 janvier 2015 au cimetière Har Hamenouhot (mont des Répits) de Jérusalem en même temps que les trois autres victimes de la prise d'otages du magasin Hyper Cacher (voir ci-dessus). Il avait 63 ans.
 </t>
         </is>
       </c>
